--- a/Kode/Server2/Logs/lora_node3/2020-05-25.xlsx
+++ b/Kode/Server2/Logs/lora_node3/2020-05-25.xlsx
@@ -8523,7 +8523,7 @@
         <v>27.21</v>
       </c>
       <c r="F408" t="n">
-        <v>0.02579508</v>
+        <v>25.79508</v>
       </c>
     </row>
     <row r="409">
@@ -8543,7 +8543,7 @@
         <v>80.55</v>
       </c>
       <c r="F409" t="n">
-        <v>0.206208</v>
+        <v>206.208</v>
       </c>
     </row>
     <row r="410">
@@ -8583,7 +8583,7 @@
         <v>42.6</v>
       </c>
       <c r="F411" t="n">
-        <v>0.05844720000000001</v>
+        <v>58.44720000000001</v>
       </c>
     </row>
     <row r="412">
@@ -8763,7 +8763,7 @@
         <v>8.25</v>
       </c>
       <c r="F420" t="n">
-        <v>0.002211</v>
+        <v>2.211</v>
       </c>
     </row>
     <row r="421">
@@ -8783,7 +8783,7 @@
         <v>115.485</v>
       </c>
       <c r="F421" t="n">
-        <v>0.38433408</v>
+        <v>384.33408</v>
       </c>
     </row>
     <row r="422">
@@ -8803,7 +8803,7 @@
         <v>157.41</v>
       </c>
       <c r="F422" t="n">
-        <v>0.5912319600000001</v>
+        <v>591.2319600000001</v>
       </c>
     </row>
     <row r="423">
@@ -8823,7 +8823,7 @@
         <v>156.03</v>
       </c>
       <c r="F423" t="n">
-        <v>0.61350996</v>
+        <v>613.50996</v>
       </c>
     </row>
     <row r="424">
@@ -8843,7 +8843,7 @@
         <v>137.925</v>
       </c>
       <c r="F424" t="n">
-        <v>0.4689449999999999</v>
+        <v>468.9449999999999</v>
       </c>
     </row>
     <row r="425">
@@ -8863,7 +8863,7 @@
         <v>156.51</v>
       </c>
       <c r="F425" t="n">
-        <v>0.6153973199999999</v>
+        <v>615.3973199999999</v>
       </c>
     </row>
     <row r="426">
@@ -8883,7 +8883,7 @@
         <v>99.85499999999999</v>
       </c>
       <c r="F426" t="n">
-        <v>0.24883866</v>
+        <v>248.83866</v>
       </c>
     </row>
     <row r="427">
@@ -8903,7 +8903,7 @@
         <v>122.265</v>
       </c>
       <c r="F427" t="n">
-        <v>0.39418236</v>
+        <v>394.18236</v>
       </c>
     </row>
     <row r="428">
@@ -8923,7 +8923,7 @@
         <v>143.13</v>
       </c>
       <c r="F428" t="n">
-        <v>0.629772</v>
+        <v>629.772</v>
       </c>
     </row>
     <row r="429">
@@ -9003,7 +9003,7 @@
         <v>27.24</v>
       </c>
       <c r="F432" t="n">
-        <v>0.02516976</v>
+        <v>25.16976</v>
       </c>
     </row>
     <row r="433">
@@ -9063,7 +9063,7 @@
         <v>51.645</v>
       </c>
       <c r="F435" t="n">
-        <v>0.09110177999999999</v>
+        <v>91.10177999999999</v>
       </c>
     </row>
     <row r="436">
@@ -9083,7 +9083,7 @@
         <v>31.59</v>
       </c>
       <c r="F436" t="n">
-        <v>0.05597748</v>
+        <v>55.97748</v>
       </c>
     </row>
     <row r="437">
